--- a/data/trans_orig/IP16A98-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A98-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95AA9502-601A-4C6A-B836-1808623D2196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69C643FC-EC39-49D2-9275-79BC6A2664F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B30E834F-FFF3-44F1-998F-D62DE99CE572}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1F49A8C9-6A3C-4C84-B45D-760FA971030C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -67,12 +67,117 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>88,16%</t>
   </si>
   <si>
@@ -100,9 +205,6 @@
     <t>90,78%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>11,84%</t>
   </si>
   <si>
@@ -130,64 +232,61 @@
     <t>22,02%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -247,105 +346,6 @@
     <t>22,37%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
     <t>84,81%</t>
   </si>
   <si>
@@ -403,6 +403,90 @@
     <t>Menores según si ha consumido otros medicamentos en 2015 (Tasa respuesta: 17,45%)</t>
   </si>
   <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
     <t>75,26%</t>
   </si>
   <si>
@@ -457,58 +541,58 @@
     <t>32,26%</t>
   </si>
   <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
   </si>
   <si>
     <t>82,79%</t>
@@ -565,90 +649,6 @@
     <t>23,72%</t>
   </si>
   <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
     <t>73,17%</t>
   </si>
   <si>
@@ -700,6 +700,102 @@
     <t>Menores según si ha consumido otros medicamentos en 2023 (Tasa respuesta: 24,79%)</t>
   </si>
   <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
     <t>85,19%</t>
   </si>
   <si>
@@ -754,58 +850,58 @@
     <t>24,48%</t>
   </si>
   <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
   </si>
   <si>
     <t>75,15%</t>
@@ -860,102 +956,6 @@
   </si>
   <si>
     <t>29,4%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
   </si>
   <si>
     <t>81,54%</t>
@@ -1401,7 +1401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0765C3A5-C4FE-4272-BF40-CC7AFB5D4E1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5391DDCA-6F80-4FC3-9CEA-C410614AF895}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1519,10 +1519,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>35545</v>
+        <v>2652</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1534,10 +1534,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>31920</v>
+        <v>5384</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1546,73 +1546,73 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7">
+        <v>9</v>
+      </c>
+      <c r="N4" s="7">
+        <v>8035</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>97</v>
-      </c>
-      <c r="N4" s="7">
-        <v>67464</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>7</v>
-      </c>
-      <c r="D5" s="7">
-        <v>4775</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>850</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>11</v>
-      </c>
-      <c r="I5" s="7">
-        <v>7213</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>850</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>18</v>
-      </c>
-      <c r="N5" s="7">
-        <v>11988</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1621,54 +1621,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>40320</v>
+        <v>2652</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>39133</v>
+        <v>6234</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="N6" s="7">
-        <v>79452</v>
+        <v>8885</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1680,13 +1680,13 @@
         <v>25081</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -1695,13 +1695,13 @@
         <v>21206</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
         <v>63</v>
@@ -1710,19 +1710,19 @@
         <v>46287</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>8</v>
@@ -1731,13 +1731,13 @@
         <v>5990</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -1746,13 +1746,13 @@
         <v>4006</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
@@ -1761,13 +1761,13 @@
         <v>9996</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1782,13 +1782,13 @@
         <v>31071</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -1797,13 +1797,13 @@
         <v>25212</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>77</v>
@@ -1812,117 +1812,117 @@
         <v>56283</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>49</v>
+      </c>
+      <c r="D10" s="7">
+        <v>35545</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="7">
-        <v>36345</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>48</v>
+      </c>
+      <c r="I10" s="7">
+        <v>31920</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>97</v>
+      </c>
+      <c r="N10" s="7">
+        <v>67464</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>50</v>
-      </c>
-      <c r="I10" s="7">
-        <v>37566</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="7">
-        <v>98</v>
-      </c>
-      <c r="N10" s="7">
-        <v>73912</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>9410</v>
+        <v>4775</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="7">
+        <v>11</v>
+      </c>
+      <c r="I11" s="7">
+        <v>7213</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="7">
-        <v>5</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3507</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>18</v>
       </c>
       <c r="N11" s="7">
-        <v>12916</v>
+        <v>11988</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1931,150 +1931,150 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7">
-        <v>45755</v>
+        <v>40320</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I12" s="7">
-        <v>41073</v>
+        <v>39133</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N12" s="7">
-        <v>86828</v>
+        <v>79452</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D13" s="7">
-        <v>2652</v>
+        <v>31459</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="I13" s="7">
-        <v>5384</v>
+        <v>31067</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>70</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="N13" s="7">
-        <v>8035</v>
+        <v>62525</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1897</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>850</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>8</v>
+      </c>
+      <c r="N14" s="7">
+        <v>5198</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>850</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>82</v>
@@ -2086,49 +2086,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="D15" s="7">
-        <v>2652</v>
+        <v>34759</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="I15" s="7">
-        <v>6234</v>
+        <v>32964</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="N15" s="7">
-        <v>8885</v>
+        <v>67723</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2139,10 +2139,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="7">
-        <v>31459</v>
+        <v>36345</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>84</v>
@@ -2157,7 +2157,7 @@
         <v>50</v>
       </c>
       <c r="I16" s="7">
-        <v>31067</v>
+        <v>37566</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>87</v>
@@ -2169,10 +2169,10 @@
         <v>89</v>
       </c>
       <c r="M16" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N16" s="7">
-        <v>62525</v>
+        <v>73912</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>90</v>
@@ -2187,13 +2187,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D17" s="7">
-        <v>3300</v>
+        <v>9410</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>93</v>
@@ -2205,10 +2205,10 @@
         <v>95</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>1897</v>
+        <v>3507</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>96</v>
@@ -2220,10 +2220,10 @@
         <v>98</v>
       </c>
       <c r="M17" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N17" s="7">
-        <v>5198</v>
+        <v>12916</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>99</v>
@@ -2241,49 +2241,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D18" s="7">
-        <v>34759</v>
+        <v>45755</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I18" s="7">
-        <v>32964</v>
+        <v>41073</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="N18" s="7">
-        <v>67723</v>
+        <v>86828</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,7 +2342,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>33</v>
@@ -2402,13 +2402,13 @@
         <v>154555</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>208</v>
@@ -2417,13 +2417,13 @@
         <v>144616</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>425</v>
@@ -2432,13 +2432,13 @@
         <v>299171</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2459,7 +2459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C25B038-A391-4914-9E69-583FFB96E6C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F6D0FF-3FC3-42AF-9108-AD8A7302E9F6}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2577,100 +2577,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>30967</v>
+        <v>3510</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4716</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="7">
-        <v>54</v>
-      </c>
-      <c r="I4" s="7">
-        <v>32769</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7">
+        <v>9</v>
+      </c>
+      <c r="N4" s="7">
+        <v>8225</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M4" s="7">
-        <v>100</v>
-      </c>
-      <c r="N4" s="7">
-        <v>63736</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>15</v>
-      </c>
-      <c r="D5" s="7">
-        <v>10180</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1763</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1764</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H5" s="7">
-        <v>15</v>
-      </c>
-      <c r="I5" s="7">
-        <v>9930</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M5" s="7">
-        <v>30</v>
-      </c>
-      <c r="N5" s="7">
-        <v>20110</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2679,54 +2679,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>41147</v>
+        <v>3510</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>42699</v>
+        <v>6479</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="N6" s="7">
-        <v>83846</v>
+        <v>9989</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2738,13 +2738,13 @@
         <v>16105</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -2753,13 +2753,13 @@
         <v>13916</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="M7" s="7">
         <v>42</v>
@@ -2768,19 +2768,19 @@
         <v>30021</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>6</v>
@@ -2789,13 +2789,13 @@
         <v>4562</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -2804,13 +2804,13 @@
         <v>3964</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -2819,13 +2819,13 @@
         <v>8526</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,13 +2840,13 @@
         <v>20667</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -2855,13 +2855,13 @@
         <v>17880</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>54</v>
@@ -2870,117 +2870,117 @@
         <v>38547</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D10" s="7">
-        <v>24959</v>
+        <v>30967</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="7">
+        <v>54</v>
+      </c>
+      <c r="I10" s="7">
+        <v>32769</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M10" s="7">
+        <v>100</v>
+      </c>
+      <c r="N10" s="7">
+        <v>63736</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H10" s="7">
-        <v>38</v>
-      </c>
-      <c r="I10" s="7">
-        <v>28659</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M10" s="7">
-        <v>73</v>
-      </c>
-      <c r="N10" s="7">
-        <v>53618</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7">
-        <v>5187</v>
+        <v>10180</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11" s="7">
+        <v>15</v>
+      </c>
+      <c r="I11" s="7">
+        <v>9930</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M11" s="7">
+        <v>30</v>
+      </c>
+      <c r="N11" s="7">
+        <v>20110</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H11" s="7">
-        <v>6</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4129</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="M11" s="7">
-        <v>13</v>
-      </c>
-      <c r="N11" s="7">
-        <v>9316</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,150 +2989,150 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D12" s="7">
-        <v>30146</v>
+        <v>41147</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="I12" s="7">
-        <v>32788</v>
+        <v>42699</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="N12" s="7">
-        <v>62934</v>
+        <v>83846</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7">
-        <v>3510</v>
+        <v>22691</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H13" s="7">
+        <v>43</v>
+      </c>
+      <c r="I13" s="7">
+        <v>25734</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M13" s="7">
+        <v>79</v>
+      </c>
+      <c r="N13" s="7">
+        <v>48425</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4716</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" s="7">
-        <v>9</v>
-      </c>
-      <c r="N13" s="7">
-        <v>8225</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>5115</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" s="7">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1881</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1763</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>11</v>
+      </c>
+      <c r="N14" s="7">
+        <v>6996</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="M14" s="7">
-        <v>2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1764</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>184</v>
@@ -3144,49 +3144,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D15" s="7">
-        <v>3510</v>
+        <v>27806</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="I15" s="7">
-        <v>6479</v>
+        <v>27615</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="N15" s="7">
-        <v>9989</v>
+        <v>55421</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,10 +3197,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="7">
-        <v>22691</v>
+        <v>24959</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>185</v>
@@ -3212,10 +3212,10 @@
         <v>187</v>
       </c>
       <c r="H16" s="7">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I16" s="7">
-        <v>25734</v>
+        <v>28659</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>188</v>
@@ -3227,10 +3227,10 @@
         <v>190</v>
       </c>
       <c r="M16" s="7">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N16" s="7">
-        <v>48425</v>
+        <v>53618</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>191</v>
@@ -3245,13 +3245,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>5115</v>
+        <v>5187</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>194</v>
@@ -3263,10 +3263,10 @@
         <v>196</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I17" s="7">
-        <v>1881</v>
+        <v>4129</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>197</v>
@@ -3278,10 +3278,10 @@
         <v>199</v>
       </c>
       <c r="M17" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N17" s="7">
-        <v>6996</v>
+        <v>9316</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>200</v>
@@ -3299,49 +3299,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>42</v>
+      </c>
+      <c r="D18" s="7">
+        <v>30146</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>44</v>
       </c>
-      <c r="D18" s="7">
-        <v>27806</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>46</v>
-      </c>
       <c r="I18" s="7">
-        <v>27615</v>
+        <v>32788</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N18" s="7">
-        <v>55421</v>
+        <v>62934</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,7 +3400,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>36</v>
@@ -3460,13 +3460,13 @@
         <v>123276</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>192</v>
@@ -3475,13 +3475,13 @@
         <v>127461</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>371</v>
@@ -3490,13 +3490,13 @@
         <v>250737</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3517,7 +3517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A1539A-1F63-498E-A863-CC962DCF37E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334316A1-2393-4348-893B-28167503674D}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3635,100 +3635,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>51833</v>
+        <v>4167</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2767</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="H4" s="7">
-        <v>54</v>
-      </c>
-      <c r="I4" s="7">
-        <v>33153</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>12</v>
+      </c>
+      <c r="N4" s="7">
+        <v>6933</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="M4" s="7">
-        <v>130</v>
-      </c>
-      <c r="N4" s="7">
-        <v>84987</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>15</v>
-      </c>
-      <c r="D5" s="7">
-        <v>9012</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H5" s="7">
+        <v>6</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3445</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>6</v>
+      </c>
+      <c r="N5" s="7">
+        <v>3445</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="H5" s="7">
-        <v>8</v>
-      </c>
-      <c r="I5" s="7">
-        <v>7020</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="M5" s="7">
-        <v>23</v>
-      </c>
-      <c r="N5" s="7">
-        <v>16031</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,54 +3737,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>60845</v>
+        <v>4167</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>40173</v>
+        <v>6212</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="N6" s="7">
-        <v>101018</v>
+        <v>10378</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3796,13 +3796,13 @@
         <v>15985</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -3811,13 +3811,13 @@
         <v>16217</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -3826,19 +3826,19 @@
         <v>32201</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>6</v>
@@ -3847,13 +3847,13 @@
         <v>5619</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -3862,13 +3862,13 @@
         <v>3106</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -3877,13 +3877,13 @@
         <v>8726</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,13 +3898,13 @@
         <v>21604</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>33</v>
@@ -3913,13 +3913,13 @@
         <v>19323</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>65</v>
@@ -3928,117 +3928,117 @@
         <v>40927</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="D10" s="7">
-        <v>24368</v>
+        <v>51833</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H10" s="7">
+        <v>54</v>
+      </c>
+      <c r="I10" s="7">
+        <v>33153</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>130</v>
+      </c>
+      <c r="N10" s="7">
+        <v>84987</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="H10" s="7">
-        <v>39</v>
-      </c>
-      <c r="I10" s="7">
-        <v>25680</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="M10" s="7">
-        <v>73</v>
-      </c>
-      <c r="N10" s="7">
-        <v>50049</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7">
-        <v>8059</v>
+        <v>9012</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
       </c>
       <c r="I11" s="7">
-        <v>5129</v>
+        <v>7020</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M11" s="7">
+        <v>23</v>
+      </c>
+      <c r="N11" s="7">
+        <v>16031</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="M11" s="7">
-        <v>20</v>
-      </c>
-      <c r="N11" s="7">
-        <v>13188</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,129 +4047,129 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D12" s="7">
-        <v>32427</v>
+        <v>60845</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I12" s="7">
-        <v>30809</v>
+        <v>40173</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="N12" s="7">
-        <v>63237</v>
+        <v>101018</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="D13" s="7">
-        <v>4167</v>
+        <v>44342</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H13" s="7">
+        <v>57</v>
+      </c>
+      <c r="I13" s="7">
+        <v>46883</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2767</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>122</v>
+      </c>
+      <c r="N13" s="7">
+        <v>91224</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="M13" s="7">
-        <v>12</v>
-      </c>
-      <c r="N13" s="7">
-        <v>6933</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>9152</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>281</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I14" s="7">
-        <v>3445</v>
+        <v>11012</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>282</v>
@@ -4181,10 +4181,10 @@
         <v>284</v>
       </c>
       <c r="M14" s="7">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="N14" s="7">
-        <v>3445</v>
+        <v>20164</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>285</v>
@@ -4202,49 +4202,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D15" s="7">
-        <v>4167</v>
+        <v>53494</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="I15" s="7">
-        <v>6212</v>
+        <v>57895</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="N15" s="7">
-        <v>10378</v>
+        <v>111388</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,10 +4255,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D16" s="7">
-        <v>44342</v>
+        <v>24368</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>288</v>
@@ -4270,10 +4270,10 @@
         <v>290</v>
       </c>
       <c r="H16" s="7">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="I16" s="7">
-        <v>46883</v>
+        <v>25680</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>291</v>
@@ -4285,10 +4285,10 @@
         <v>293</v>
       </c>
       <c r="M16" s="7">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="N16" s="7">
-        <v>91224</v>
+        <v>50049</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>294</v>
@@ -4303,13 +4303,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>9152</v>
+        <v>8059</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>297</v>
@@ -4321,10 +4321,10 @@
         <v>299</v>
       </c>
       <c r="H17" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I17" s="7">
-        <v>11012</v>
+        <v>5129</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>300</v>
@@ -4336,10 +4336,10 @@
         <v>302</v>
       </c>
       <c r="M17" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N17" s="7">
-        <v>20164</v>
+        <v>13188</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>303</v>
@@ -4357,49 +4357,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D18" s="7">
-        <v>53494</v>
+        <v>32427</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="I18" s="7">
-        <v>57895</v>
+        <v>30809</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="N18" s="7">
-        <v>111388</v>
+        <v>63237</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,7 +4458,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>42</v>
@@ -4518,13 +4518,13 @@
         <v>172537</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>226</v>
@@ -4533,13 +4533,13 @@
         <v>154412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>476</v>
@@ -4548,13 +4548,13 @@
         <v>326948</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A98-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A98-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69C643FC-EC39-49D2-9275-79BC6A2664F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FEF79DE-7369-45D4-B17F-A349143A4E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1F49A8C9-6A3C-4C84-B45D-760FA971030C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{06592553-BF93-44CF-BB15-3A336895AEB3}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="325">
   <si>
     <t>Menores según si ha consumido otros medicamentos en 2012 (Tasa respuesta: 20,25%)</t>
   </si>
@@ -70,6 +70,30 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -85,621 +109,627 @@
     <t>86,36%</t>
   </si>
   <si>
-    <t>42,08%</t>
+    <t>41,54%</t>
   </si>
   <si>
     <t>90,43%</t>
   </si>
   <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
+    <t>55,8%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
     <t>80,72%</t>
   </si>
   <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
   </si>
   <si>
     <t>84,11%</t>
   </si>
   <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
   </si>
   <si>
     <t>82,24%</t>
   </si>
   <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
     <t>88,16%</t>
   </si>
   <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
   </si>
   <si>
     <t>81,57%</t>
   </si>
   <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
   </si>
   <si>
     <t>84,91%</t>
   </si>
   <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
   </si>
   <si>
     <t>94,24%</t>
   </si>
   <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
   </si>
   <si>
     <t>92,33%</t>
   </si>
   <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
     <t>79,43%</t>
   </si>
   <si>
-    <t>68,14%</t>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido otros medicamentos en 2015 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
   </si>
   <si>
     <t>88,07%</t>
   </si>
   <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido otros medicamentos en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
     <t>81,37%</t>
   </si>
   <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
   </si>
   <si>
     <t>Menores según si ha consumido otros medicamentos en 2023 (Tasa respuesta: 24,79%)</t>
   </si>
   <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
     <t>76,75%</t>
   </si>
   <si>
@@ -721,295 +751,268 @@
     <t>85,91%</t>
   </si>
   <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
   </si>
   <si>
     <t>73,99%</t>
   </si>
   <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
   </si>
   <si>
     <t>83,92%</t>
   </si>
   <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
   </si>
   <si>
     <t>78,68%</t>
   </si>
   <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
   </si>
   <si>
     <t>85,19%</t>
   </si>
   <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
   </si>
   <si>
     <t>82,53%</t>
   </si>
   <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
   </si>
   <si>
     <t>84,13%</t>
   </si>
   <si>
-    <t>75,52%</t>
+    <t>74,49%</t>
   </si>
   <si>
     <t>89,8%</t>
   </si>
   <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
   </si>
   <si>
     <t>80,98%</t>
   </si>
   <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
   </si>
   <si>
     <t>81,9%</t>
   </si>
   <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
   </si>
   <si>
     <t>75,15%</t>
   </si>
   <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
   </si>
   <si>
     <t>83,35%</t>
   </si>
   <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
   </si>
   <si>
     <t>79,14%</t>
   </si>
   <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
   </si>
   <si>
     <t>81,54%</t>
   </si>
   <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
   </si>
   <si>
     <t>80,76%</t>
   </si>
   <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
   </si>
   <si>
     <t>81,17%</t>
   </si>
   <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1023,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1116,39 +1119,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1200,7 +1203,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1311,13 +1314,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1326,6 +1322,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1390,19 +1393,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5391DDCA-6F80-4FC3-9CEA-C410614AF895}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E604A73A-4908-4E84-A1A1-99E461CD1265}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1519,10 +1542,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>2652</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1534,34 +1557,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>5384</v>
+        <v>850</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>8035</v>
+        <v>850</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1570,10 +1593,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>2652</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1585,34 +1608,34 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>850</v>
+        <v>5384</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N5" s="7">
-        <v>850</v>
+        <v>8035</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1627,13 +1650,13 @@
         <v>2652</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -1642,13 +1665,13 @@
         <v>6234</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -1657,13 +1680,13 @@
         <v>8885</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1674,10 +1697,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>25081</v>
+        <v>5990</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -1689,10 +1712,10 @@
         <v>29</v>
       </c>
       <c r="H7" s="7">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>21206</v>
+        <v>4006</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>30</v>
@@ -1704,10 +1727,10 @@
         <v>32</v>
       </c>
       <c r="M7" s="7">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>46287</v>
+        <v>9996</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>33</v>
@@ -1725,10 +1748,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D8" s="7">
-        <v>5990</v>
+        <v>25081</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>36</v>
@@ -1740,10 +1763,10 @@
         <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="I8" s="7">
-        <v>4006</v>
+        <v>21206</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>39</v>
@@ -1755,10 +1778,10 @@
         <v>41</v>
       </c>
       <c r="M8" s="7">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="N8" s="7">
-        <v>9996</v>
+        <v>46287</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>42</v>
@@ -1782,13 +1805,13 @@
         <v>31071</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -1797,13 +1820,13 @@
         <v>25212</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>77</v>
@@ -1812,13 +1835,13 @@
         <v>56283</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,10 +1852,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>35545</v>
+        <v>4775</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>46</v>
@@ -1844,10 +1867,10 @@
         <v>48</v>
       </c>
       <c r="H10" s="7">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>31920</v>
+        <v>7213</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>49</v>
@@ -1859,10 +1882,10 @@
         <v>51</v>
       </c>
       <c r="M10" s="7">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="N10" s="7">
-        <v>67464</v>
+        <v>11988</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>52</v>
@@ -1880,10 +1903,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="D11" s="7">
-        <v>4775</v>
+        <v>35545</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>55</v>
@@ -1895,10 +1918,10 @@
         <v>57</v>
       </c>
       <c r="H11" s="7">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="I11" s="7">
-        <v>7213</v>
+        <v>31920</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>58</v>
@@ -1910,10 +1933,10 @@
         <v>60</v>
       </c>
       <c r="M11" s="7">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="N11" s="7">
-        <v>11988</v>
+        <v>67464</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>61</v>
@@ -1937,13 +1960,13 @@
         <v>40320</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>59</v>
@@ -1952,13 +1975,13 @@
         <v>39133</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>115</v>
@@ -1967,13 +1990,13 @@
         <v>79452</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1984,10 +2007,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>31459</v>
+        <v>3300</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>65</v>
@@ -1999,10 +2022,10 @@
         <v>67</v>
       </c>
       <c r="H13" s="7">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>31067</v>
+        <v>1897</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>68</v>
@@ -2014,10 +2037,10 @@
         <v>70</v>
       </c>
       <c r="M13" s="7">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>62525</v>
+        <v>5198</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>71</v>
@@ -2035,10 +2058,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D14" s="7">
-        <v>3300</v>
+        <v>31459</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>74</v>
@@ -2050,10 +2073,10 @@
         <v>76</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="I14" s="7">
-        <v>1897</v>
+        <v>31067</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>77</v>
@@ -2065,10 +2088,10 @@
         <v>79</v>
       </c>
       <c r="M14" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="N14" s="7">
-        <v>5198</v>
+        <v>62525</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>80</v>
@@ -2092,13 +2115,13 @@
         <v>34759</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>53</v>
@@ -2107,13 +2130,13 @@
         <v>32964</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>107</v>
@@ -2122,13 +2145,13 @@
         <v>67723</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2139,10 +2162,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D16" s="7">
-        <v>36345</v>
+        <v>9410</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>84</v>
@@ -2154,10 +2177,10 @@
         <v>86</v>
       </c>
       <c r="H16" s="7">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>37566</v>
+        <v>3507</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>87</v>
@@ -2169,10 +2192,10 @@
         <v>89</v>
       </c>
       <c r="M16" s="7">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="N16" s="7">
-        <v>73912</v>
+        <v>12916</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>90</v>
@@ -2190,10 +2213,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D17" s="7">
-        <v>9410</v>
+        <v>36345</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>93</v>
@@ -2205,10 +2228,10 @@
         <v>95</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I17" s="7">
-        <v>3507</v>
+        <v>37566</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>96</v>
@@ -2220,10 +2243,10 @@
         <v>98</v>
       </c>
       <c r="M17" s="7">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="N17" s="7">
-        <v>12916</v>
+        <v>73912</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>99</v>
@@ -2247,13 +2270,13 @@
         <v>45755</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
         <v>55</v>
@@ -2262,13 +2285,13 @@
         <v>41073</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>116</v>
@@ -2277,13 +2300,13 @@
         <v>86828</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,10 +2317,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>184</v>
+        <v>33</v>
       </c>
       <c r="D19" s="7">
-        <v>131080</v>
+        <v>23475</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>102</v>
@@ -2309,10 +2332,10 @@
         <v>104</v>
       </c>
       <c r="H19" s="7">
-        <v>182</v>
+        <v>26</v>
       </c>
       <c r="I19" s="7">
-        <v>127143</v>
+        <v>17473</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>105</v>
@@ -2324,10 +2347,10 @@
         <v>107</v>
       </c>
       <c r="M19" s="7">
-        <v>366</v>
+        <v>59</v>
       </c>
       <c r="N19" s="7">
-        <v>258223</v>
+        <v>40948</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>108</v>
@@ -2345,10 +2368,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="D20" s="7">
-        <v>23475</v>
+        <v>131080</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>111</v>
@@ -2360,10 +2383,10 @@
         <v>113</v>
       </c>
       <c r="H20" s="7">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="I20" s="7">
-        <v>17473</v>
+        <v>127143</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>114</v>
@@ -2375,10 +2398,10 @@
         <v>116</v>
       </c>
       <c r="M20" s="7">
-        <v>59</v>
+        <v>366</v>
       </c>
       <c r="N20" s="7">
-        <v>40948</v>
+        <v>258223</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>117</v>
@@ -2402,13 +2425,13 @@
         <v>154555</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>208</v>
@@ -2417,13 +2440,13 @@
         <v>144616</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>425</v>
@@ -2432,13 +2455,18 @@
         <v>299171</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2459,8 +2487,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F6D0FF-3FC3-42AF-9108-AD8A7302E9F6}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757E9203-F61A-4EC6-AB0E-46F7D3B94AD9}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2476,7 +2504,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2577,49 +2605,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>3510</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>4716</v>
+        <v>1763</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1764</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="7">
-        <v>9</v>
-      </c>
-      <c r="N4" s="7">
-        <v>8225</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,49 +2656,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>3510</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>1763</v>
+        <v>4716</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N5" s="7">
-        <v>1764</v>
+        <v>8225</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,13 +2713,13 @@
         <v>3510</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -2700,13 +2728,13 @@
         <v>6479</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -2715,13 +2743,13 @@
         <v>9989</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,49 +2760,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>16105</v>
+        <v>4562</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H7" s="7">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>13916</v>
+        <v>3964</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M7" s="7">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="N7" s="7">
-        <v>30021</v>
+        <v>8526</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,49 +2811,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7">
-        <v>4562</v>
+        <v>16105</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I8" s="7">
-        <v>3964</v>
+        <v>13916</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="N8" s="7">
-        <v>8526</v>
+        <v>30021</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,13 +2868,13 @@
         <v>20667</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -2855,13 +2883,13 @@
         <v>17880</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>54</v>
@@ -2870,13 +2898,13 @@
         <v>38547</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,49 +2915,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D10" s="7">
-        <v>30967</v>
+        <v>10180</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H10" s="7">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>32769</v>
+        <v>9930</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M10" s="7">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N10" s="7">
-        <v>63736</v>
+        <v>20110</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,49 +2966,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D11" s="7">
-        <v>10180</v>
+        <v>30967</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H11" s="7">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="I11" s="7">
-        <v>9930</v>
+        <v>32769</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M11" s="7">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N11" s="7">
-        <v>20110</v>
+        <v>63736</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +3023,13 @@
         <v>41147</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>69</v>
@@ -3010,13 +3038,13 @@
         <v>42699</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>130</v>
@@ -3025,13 +3053,13 @@
         <v>83846</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,49 +3070,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>22691</v>
+        <v>5115</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H13" s="7">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>25734</v>
+        <v>1881</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M13" s="7">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="N13" s="7">
-        <v>48425</v>
+        <v>6996</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,49 +3121,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D14" s="7">
-        <v>5115</v>
+        <v>22691</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="I14" s="7">
-        <v>1881</v>
+        <v>25734</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M14" s="7">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="N14" s="7">
-        <v>6996</v>
+        <v>48425</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,13 +3178,13 @@
         <v>27806</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>46</v>
@@ -3165,13 +3193,13 @@
         <v>27615</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>90</v>
@@ -3180,13 +3208,13 @@
         <v>55421</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,49 +3225,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>24959</v>
+        <v>5187</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H16" s="7">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="I16" s="7">
-        <v>28659</v>
+        <v>4129</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M16" s="7">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="N16" s="7">
-        <v>53618</v>
+        <v>9316</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,49 +3276,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D17" s="7">
-        <v>5187</v>
+        <v>24959</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H17" s="7">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="I17" s="7">
-        <v>4129</v>
+        <v>28659</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M17" s="7">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="N17" s="7">
-        <v>9316</v>
+        <v>53618</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,13 +3333,13 @@
         <v>30146</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
         <v>44</v>
@@ -3320,13 +3348,13 @@
         <v>32788</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>86</v>
@@ -3335,13 +3363,13 @@
         <v>62934</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,49 +3380,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="D19" s="7">
-        <v>98231</v>
+        <v>25045</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>204</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H19" s="7">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="I19" s="7">
-        <v>105793</v>
+        <v>21668</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M19" s="7">
-        <v>303</v>
+        <v>68</v>
       </c>
       <c r="N19" s="7">
-        <v>204025</v>
+        <v>46712</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,49 +3431,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="D20" s="7">
-        <v>25045</v>
+        <v>98231</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>213</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H20" s="7">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="I20" s="7">
-        <v>21668</v>
+        <v>105793</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M20" s="7">
-        <v>68</v>
+        <v>303</v>
       </c>
       <c r="N20" s="7">
-        <v>46712</v>
+        <v>204025</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,13 +3488,13 @@
         <v>123276</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>192</v>
@@ -3475,13 +3503,13 @@
         <v>127461</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>371</v>
@@ -3490,13 +3518,18 @@
         <v>250737</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3517,8 +3550,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334316A1-2393-4348-893B-28167503674D}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8660C27-D860-4CB1-84B5-59D23948D9E4}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3534,7 +3567,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3635,49 +3668,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>4167</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>2767</v>
+        <v>3445</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M4" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>6933</v>
+        <v>3445</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,49 +3719,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>4167</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>227</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>3445</v>
+        <v>2767</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N5" s="7">
-        <v>3445</v>
+        <v>6933</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,13 +3776,13 @@
         <v>4167</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -3758,13 +3791,13 @@
         <v>6212</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -3773,13 +3806,13 @@
         <v>10378</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,49 +3823,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>15985</v>
+        <v>5619</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H7" s="7">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>16217</v>
+        <v>3106</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M7" s="7">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>32201</v>
+        <v>8726</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,49 +3874,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D8" s="7">
-        <v>5619</v>
+        <v>15985</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="I8" s="7">
-        <v>3106</v>
+        <v>16217</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M8" s="7">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="N8" s="7">
-        <v>8726</v>
+        <v>32201</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,13 +3931,13 @@
         <v>21604</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>33</v>
@@ -3913,13 +3946,13 @@
         <v>19323</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>65</v>
@@ -3928,13 +3961,13 @@
         <v>40927</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,49 +3978,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D10" s="7">
-        <v>51833</v>
+        <v>9012</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H10" s="7">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>33153</v>
+        <v>7020</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M10" s="7">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="N10" s="7">
-        <v>84987</v>
+        <v>16031</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,49 +4029,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D11" s="7">
-        <v>9012</v>
+        <v>51833</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H11" s="7">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="I11" s="7">
-        <v>7020</v>
+        <v>33153</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M11" s="7">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="N11" s="7">
-        <v>16031</v>
+        <v>84987</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,13 +4086,13 @@
         <v>60845</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>62</v>
@@ -4068,13 +4101,13 @@
         <v>40173</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>153</v>
@@ -4083,13 +4116,13 @@
         <v>101018</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,49 +4133,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>44342</v>
+        <v>9152</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>270</v>
+        <v>157</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I13" s="7">
-        <v>46883</v>
+        <v>11012</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M13" s="7">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="N13" s="7">
-        <v>91224</v>
+        <v>20164</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,49 +4184,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D14" s="7">
-        <v>9152</v>
+        <v>44342</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>279</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H14" s="7">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I14" s="7">
-        <v>11012</v>
+        <v>46883</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M14" s="7">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="N14" s="7">
-        <v>20164</v>
+        <v>91224</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,13 +4241,13 @@
         <v>53494</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -4223,13 +4256,13 @@
         <v>57895</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>147</v>
@@ -4238,13 +4271,13 @@
         <v>111388</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,49 +4288,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>24368</v>
+        <v>8059</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H16" s="7">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>25680</v>
+        <v>5129</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M16" s="7">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="N16" s="7">
-        <v>50049</v>
+        <v>13188</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,49 +4339,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D17" s="7">
-        <v>8059</v>
+        <v>24368</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H17" s="7">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I17" s="7">
-        <v>5129</v>
+        <v>25680</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M17" s="7">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="N17" s="7">
-        <v>13188</v>
+        <v>50049</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,13 +4396,13 @@
         <v>32427</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
         <v>47</v>
@@ -4378,13 +4411,13 @@
         <v>30809</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>93</v>
@@ -4393,13 +4426,13 @@
         <v>63237</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,49 +4443,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>208</v>
+        <v>42</v>
       </c>
       <c r="D19" s="7">
-        <v>140695</v>
+        <v>31842</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H19" s="7">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="I19" s="7">
-        <v>124699</v>
+        <v>29713</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M19" s="7">
-        <v>391</v>
+        <v>85</v>
       </c>
       <c r="N19" s="7">
-        <v>265393</v>
+        <v>61555</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,49 +4494,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>42</v>
+        <v>208</v>
       </c>
       <c r="D20" s="7">
-        <v>31842</v>
+        <v>140695</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H20" s="7">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="I20" s="7">
-        <v>29713</v>
+        <v>124699</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M20" s="7">
-        <v>85</v>
+        <v>391</v>
       </c>
       <c r="N20" s="7">
-        <v>61555</v>
+        <v>265393</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,13 +4551,13 @@
         <v>172537</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>226</v>
@@ -4533,13 +4566,13 @@
         <v>154412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>476</v>
@@ -4548,13 +4581,18 @@
         <v>326948</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A98-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A98-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FEF79DE-7369-45D4-B17F-A349143A4E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEAB5368-BC5E-4FBF-9508-A33BAF354389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{06592553-BF93-44CF-BB15-3A336895AEB3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E07272B2-3260-48FF-990A-19964BEBD081}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="319">
   <si>
     <t>Menores según si ha consumido otros medicamentos en 2012 (Tasa respuesta: 20,25%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -85,13 +85,13 @@
     <t>13,64%</t>
   </si>
   <si>
-    <t>58,46%</t>
+    <t>59,27%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>44,2%</t>
+    <t>42,13%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,910 +109,892 @@
     <t>86,36%</t>
   </si>
   <si>
-    <t>41,54%</t>
+    <t>40,73%</t>
   </si>
   <si>
     <t>90,43%</t>
   </si>
   <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>19,28%</t>
   </si>
   <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido otros medicamentos en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido otros medicamentos en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
     <t>9,89%</t>
   </si>
   <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
   </si>
   <si>
     <t>90,11%</t>
   </si>
   <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido otros medicamentos en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
     <t>17,11%</t>
   </si>
   <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
   </si>
   <si>
     <t>82,89%</t>
   </si>
   <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido otros medicamentos en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
   </si>
   <si>
     <t>80,98%</t>
   </si>
   <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
   </si>
   <si>
     <t>81,9%</t>
   </si>
   <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
   </si>
   <si>
     <t>24,85%</t>
   </si>
   <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
   </si>
   <si>
     <t>20,86%</t>
   </si>
   <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
   </si>
   <si>
     <t>75,15%</t>
   </si>
   <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
   </si>
   <si>
     <t>83,35%</t>
   </si>
   <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
   </si>
   <si>
     <t>79,14%</t>
   </si>
   <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
   </si>
   <si>
     <t>18,46%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
   </si>
   <si>
     <t>19,24%</t>
   </si>
   <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
   </si>
   <si>
     <t>18,83%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
+    <t>23,91%</t>
   </si>
   <si>
     <t>81,54%</t>
   </si>
   <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
   </si>
   <si>
     <t>80,76%</t>
   </si>
   <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
   </si>
   <si>
     <t>81,17%</t>
   </si>
   <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
+    <t>76,09%</t>
   </si>
 </sst>
 </file>
@@ -1424,7 +1406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E604A73A-4908-4E84-A1A1-99E461CD1265}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B190C9DB-12F1-482C-A0AB-E8D1CB464849}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2487,7 +2469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757E9203-F61A-4EC6-AB0E-46F7D3B94AD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7418055-188E-4DC4-AB7D-E2A6BF65E7F0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3419,10 +3401,10 @@
         <v>210</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>211</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,13 +3419,13 @@
         <v>98231</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H20" s="7">
         <v>160</v>
@@ -3452,13 +3434,13 @@
         <v>105793</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M20" s="7">
         <v>303</v>
@@ -3467,13 +3449,13 @@
         <v>204025</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>221</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,7 +3532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8660C27-D860-4CB1-84B5-59D23948D9E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF8F49F-93FC-4C6F-9D6E-D0E255009329}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3567,7 +3549,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3680,7 +3662,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -3689,13 +3671,13 @@
         <v>3445</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3704,13 +3686,13 @@
         <v>3445</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,7 +3710,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3740,13 +3722,13 @@
         <v>2767</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -3755,13 +3737,13 @@
         <v>6933</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>236</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,13 +3811,13 @@
         <v>5619</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -3844,13 +3826,13 @@
         <v>3106</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -3859,13 +3841,13 @@
         <v>8726</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,13 +3862,13 @@
         <v>15985</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -3895,13 +3877,13 @@
         <v>16217</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="M8" s="7">
         <v>54</v>
@@ -3910,13 +3892,13 @@
         <v>32201</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,13 +3966,13 @@
         <v>9012</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -3999,13 +3981,13 @@
         <v>7020</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -4014,13 +3996,13 @@
         <v>16031</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,13 +4017,13 @@
         <v>51833</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H11" s="7">
         <v>54</v>
@@ -4050,13 +4032,13 @@
         <v>33153</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M11" s="7">
         <v>130</v>
@@ -4065,13 +4047,13 @@
         <v>84987</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4121,13 @@
         <v>9152</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>157</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -4154,13 +4136,13 @@
         <v>11012</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -4169,13 +4151,13 @@
         <v>20164</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4172,13 @@
         <v>44342</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>167</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>57</v>
@@ -4205,13 +4187,13 @@
         <v>46883</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>122</v>
@@ -4220,13 +4202,13 @@
         <v>91224</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4276,13 @@
         <v>8059</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -4309,13 +4291,13 @@
         <v>5129</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -4324,13 +4306,13 @@
         <v>13188</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4327,13 @@
         <v>24368</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -4360,13 +4342,13 @@
         <v>25680</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M17" s="7">
         <v>73</v>
@@ -4375,13 +4357,13 @@
         <v>50049</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,13 +4431,13 @@
         <v>31842</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H19" s="7">
         <v>43</v>
@@ -4464,13 +4446,13 @@
         <v>29713</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>85</v>
@@ -4479,13 +4461,13 @@
         <v>61555</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>314</v>
+        <v>205</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,13 +4482,13 @@
         <v>140695</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H20" s="7">
         <v>183</v>
@@ -4515,13 +4497,13 @@
         <v>124699</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="M20" s="7">
         <v>391</v>
@@ -4530,13 +4512,13 @@
         <v>265393</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>324</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16A98-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A98-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEAB5368-BC5E-4FBF-9508-A33BAF354389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A006F22-FDD5-4594-84DE-5A4C24B5269C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E07272B2-3260-48FF-990A-19964BEBD081}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2B116D25-DD6A-482A-851B-75C242C449D2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="279">
   <si>
     <t>Menores según si ha consumido otros medicamentos en 2012 (Tasa respuesta: 20,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,337 +67,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
     <t>11,84%</t>
   </si>
   <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
   </si>
   <si>
     <t>15,09%</t>
   </si>
   <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
   </si>
   <si>
     <t>88,16%</t>
   </si>
   <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
   </si>
   <si>
     <t>84,91%</t>
   </si>
   <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
   </si>
   <si>
     <t>7,67%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
   </si>
   <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
   </si>
   <si>
     <t>92,33%</t>
   </si>
   <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
     <t>20,57%</t>
   </si>
   <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
   </si>
   <si>
     <t>14,88%</t>
   </si>
   <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
   </si>
   <si>
     <t>79,43%</t>
   </si>
   <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
   </si>
   <si>
     <t>85,12%</t>
   </si>
   <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
   </si>
   <si>
     <t>15,19%</t>
   </si>
   <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
   </si>
   <si>
     <t>13,69%</t>
   </si>
   <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
   </si>
   <si>
     <t>84,81%</t>
   </si>
   <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
   </si>
   <si>
     <t>86,31%</t>
   </si>
   <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -406,595 +364,517 @@
     <t>Menores según si ha consumido otros medicamentos en 2016 (Tasa respuesta: 17,45%)</t>
   </si>
   <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido otros medicamentos en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
   </si>
   <si>
     <t>40,89%</t>
   </si>
   <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
   </si>
   <si>
     <t>59,11%</t>
   </si>
   <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido otros medicamentos en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
   </si>
   <si>
     <t>13,98%</t>
   </si>
   <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
   </si>
   <si>
     <t>86,02%</t>
   </si>
   <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
   </si>
 </sst>
 </file>
@@ -1406,8 +1286,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B190C9DB-12F1-482C-A0AB-E8D1CB464849}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E32532-3E5A-4F93-A0F8-5D931DB7F95E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1524,10 +1404,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>4857</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1539,85 +1419,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>850</v>
+        <v>5990</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="7">
         <v>15</v>
       </c>
-      <c r="M4" s="7">
-        <v>1</v>
-      </c>
       <c r="N4" s="7">
-        <v>850</v>
+        <v>10847</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D5" s="7">
-        <v>2652</v>
+        <v>26589</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="I5" s="7">
-        <v>5384</v>
+        <v>27732</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="N5" s="7">
-        <v>8035</v>
+        <v>54322</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1626,153 +1506,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D6" s="7">
-        <v>2652</v>
+        <v>31446</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="I6" s="7">
-        <v>6234</v>
+        <v>33722</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="N6" s="7">
-        <v>8885</v>
+        <v>65169</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>5990</v>
+        <v>7213</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>4006</v>
+        <v>4775</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>9996</v>
+        <v>11988</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D8" s="7">
-        <v>25081</v>
+        <v>31920</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="I8" s="7">
-        <v>21206</v>
+        <v>35545</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="N8" s="7">
-        <v>46287</v>
+        <v>67464</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1781,153 +1661,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D9" s="7">
-        <v>31071</v>
+        <v>39133</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I9" s="7">
-        <v>25212</v>
+        <v>40320</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="N9" s="7">
-        <v>56283</v>
+        <v>79452</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>4775</v>
+        <v>1897</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>7213</v>
+        <v>3300</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N10" s="7">
-        <v>11988</v>
+        <v>5198</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>50</v>
+      </c>
+      <c r="D11" s="7">
+        <v>31067</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="7">
         <v>49</v>
       </c>
-      <c r="D11" s="7">
-        <v>35545</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="7">
-        <v>48</v>
-      </c>
       <c r="I11" s="7">
-        <v>31920</v>
+        <v>31459</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N11" s="7">
-        <v>67464</v>
+        <v>62525</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,54 +1816,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D12" s="7">
-        <v>40320</v>
+        <v>32964</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I12" s="7">
-        <v>39133</v>
+        <v>34759</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="N12" s="7">
-        <v>79452</v>
+        <v>67723</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1992,97 +1872,97 @@
         <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>3300</v>
+        <v>3507</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I13" s="7">
-        <v>1897</v>
+        <v>9410</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N13" s="7">
-        <v>5198</v>
+        <v>12916</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" s="7">
-        <v>31459</v>
+        <v>37566</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I14" s="7">
-        <v>31067</v>
+        <v>36345</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N14" s="7">
-        <v>62525</v>
+        <v>73912</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,153 +1971,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" s="7">
-        <v>34759</v>
+        <v>41073</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I15" s="7">
-        <v>32964</v>
+        <v>45755</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="N15" s="7">
-        <v>67723</v>
+        <v>86828</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D16" s="7">
-        <v>9410</v>
+        <v>17473</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="I16" s="7">
-        <v>3507</v>
+        <v>23475</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="N16" s="7">
-        <v>12916</v>
+        <v>40948</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="D17" s="7">
-        <v>36345</v>
+        <v>127143</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="I17" s="7">
-        <v>37566</v>
+        <v>131080</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>98</v>
+        <v>366</v>
       </c>
       <c r="N17" s="7">
-        <v>73912</v>
+        <v>258223</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,217 +2126,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>61</v>
+        <v>208</v>
       </c>
       <c r="D18" s="7">
-        <v>45755</v>
+        <v>144616</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>55</v>
+        <v>217</v>
       </c>
       <c r="I18" s="7">
-        <v>41073</v>
+        <v>154555</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>116</v>
+        <v>425</v>
       </c>
       <c r="N18" s="7">
-        <v>86828</v>
+        <v>299171</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>33</v>
-      </c>
-      <c r="D19" s="7">
-        <v>23475</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" s="7">
-        <v>26</v>
-      </c>
-      <c r="I19" s="7">
-        <v>17473</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="M19" s="7">
-        <v>59</v>
-      </c>
-      <c r="N19" s="7">
-        <v>40948</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>184</v>
-      </c>
-      <c r="D20" s="7">
-        <v>131080</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="7">
-        <v>182</v>
-      </c>
-      <c r="I20" s="7">
-        <v>127143</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M20" s="7">
-        <v>366</v>
-      </c>
-      <c r="N20" s="7">
-        <v>258223</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>217</v>
-      </c>
-      <c r="D21" s="7">
-        <v>154555</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>208</v>
-      </c>
-      <c r="I21" s="7">
-        <v>144616</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>425</v>
-      </c>
-      <c r="N21" s="7">
-        <v>299171</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>120</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2469,8 +2193,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7418055-188E-4DC4-AB7D-E2A6BF65E7F0}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D7C0F4-3D34-4624-8045-DD76B8D1BA9B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2486,7 +2210,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2587,100 +2311,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>5728</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>1763</v>
+        <v>4562</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>1764</v>
+        <v>10290</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7">
-        <v>3510</v>
+        <v>18631</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>4716</v>
+        <v>19614</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="N5" s="7">
-        <v>8225</v>
+        <v>38246</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,153 +2413,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>3510</v>
+        <v>24359</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="I6" s="7">
-        <v>6479</v>
+        <v>24176</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="N6" s="7">
-        <v>9989</v>
+        <v>48536</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>4562</v>
+        <v>9930</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="7">
+        <v>15</v>
+      </c>
+      <c r="I7" s="7">
+        <v>10180</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M7" s="7">
+        <v>30</v>
+      </c>
+      <c r="N7" s="7">
+        <v>20110</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="H7" s="7">
-        <v>6</v>
-      </c>
-      <c r="I7" s="7">
-        <v>3964</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M7" s="7">
-        <v>12</v>
-      </c>
-      <c r="N7" s="7">
-        <v>8526</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D8" s="7">
-        <v>16105</v>
+        <v>32769</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="7">
+        <v>46</v>
+      </c>
+      <c r="I8" s="7">
+        <v>30967</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M8" s="7">
+        <v>100</v>
+      </c>
+      <c r="N8" s="7">
+        <v>63736</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="H8" s="7">
-        <v>20</v>
-      </c>
-      <c r="I8" s="7">
-        <v>13916</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M8" s="7">
-        <v>42</v>
-      </c>
-      <c r="N8" s="7">
-        <v>30021</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,153 +2568,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="D9" s="7">
-        <v>20667</v>
+        <v>42699</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I9" s="7">
-        <v>17880</v>
+        <v>41147</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="N9" s="7">
-        <v>38547</v>
+        <v>83846</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>10180</v>
+        <v>1881</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="7">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7">
+        <v>5115</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M10" s="7">
+        <v>11</v>
+      </c>
+      <c r="N10" s="7">
+        <v>6996</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="H10" s="7">
-        <v>15</v>
-      </c>
-      <c r="I10" s="7">
-        <v>9930</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M10" s="7">
-        <v>30</v>
-      </c>
-      <c r="N10" s="7">
-        <v>20110</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D11" s="7">
-        <v>30967</v>
+        <v>25734</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="7">
+        <v>36</v>
+      </c>
+      <c r="I11" s="7">
+        <v>22691</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M11" s="7">
+        <v>79</v>
+      </c>
+      <c r="N11" s="7">
+        <v>48425</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="H11" s="7">
-        <v>54</v>
-      </c>
-      <c r="I11" s="7">
-        <v>32769</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M11" s="7">
-        <v>100</v>
-      </c>
-      <c r="N11" s="7">
-        <v>63736</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,153 +2723,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D12" s="7">
-        <v>41147</v>
+        <v>27615</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="I12" s="7">
-        <v>42699</v>
+        <v>27806</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="N12" s="7">
-        <v>83846</v>
+        <v>55421</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>5115</v>
+        <v>4129</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" s="7">
+        <v>7</v>
+      </c>
+      <c r="I13" s="7">
+        <v>5187</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M13" s="7">
+        <v>13</v>
+      </c>
+      <c r="N13" s="7">
+        <v>9316</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1881</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M13" s="7">
-        <v>11</v>
-      </c>
-      <c r="N13" s="7">
-        <v>6996</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D14" s="7">
-        <v>22691</v>
+        <v>28659</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="7">
+        <v>35</v>
+      </c>
+      <c r="I14" s="7">
+        <v>24959</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M14" s="7">
+        <v>73</v>
+      </c>
+      <c r="N14" s="7">
+        <v>53618</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="H14" s="7">
-        <v>43</v>
-      </c>
-      <c r="I14" s="7">
-        <v>25734</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="M14" s="7">
-        <v>79</v>
-      </c>
-      <c r="N14" s="7">
-        <v>48425</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,150 +2881,150 @@
         <v>44</v>
       </c>
       <c r="D15" s="7">
-        <v>27806</v>
+        <v>32788</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I15" s="7">
-        <v>27615</v>
+        <v>30146</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N15" s="7">
-        <v>55421</v>
+        <v>62934</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D16" s="7">
-        <v>5187</v>
+        <v>21668</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" s="7">
+        <v>36</v>
+      </c>
+      <c r="I16" s="7">
+        <v>25045</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="M16" s="7">
+        <v>68</v>
+      </c>
+      <c r="N16" s="7">
+        <v>46712</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H16" s="7">
-        <v>6</v>
-      </c>
-      <c r="I16" s="7">
-        <v>4129</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M16" s="7">
-        <v>13</v>
-      </c>
-      <c r="N16" s="7">
-        <v>9316</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="D17" s="7">
-        <v>24959</v>
+        <v>105793</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H17" s="7">
+        <v>143</v>
+      </c>
+      <c r="I17" s="7">
+        <v>98231</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M17" s="7">
+        <v>303</v>
+      </c>
+      <c r="N17" s="7">
+        <v>204025</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H17" s="7">
-        <v>38</v>
-      </c>
-      <c r="I17" s="7">
-        <v>28659</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="M17" s="7">
-        <v>73</v>
-      </c>
-      <c r="N17" s="7">
-        <v>53618</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,217 +3033,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="D18" s="7">
-        <v>30146</v>
+        <v>127461</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="I18" s="7">
-        <v>32788</v>
+        <v>123276</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>86</v>
+        <v>371</v>
       </c>
       <c r="N18" s="7">
-        <v>62934</v>
+        <v>250737</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>36</v>
-      </c>
-      <c r="D19" s="7">
-        <v>25045</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H19" s="7">
-        <v>32</v>
-      </c>
-      <c r="I19" s="7">
-        <v>21668</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M19" s="7">
-        <v>68</v>
-      </c>
-      <c r="N19" s="7">
-        <v>46712</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>143</v>
-      </c>
-      <c r="D20" s="7">
-        <v>98231</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H20" s="7">
-        <v>160</v>
-      </c>
-      <c r="I20" s="7">
-        <v>105793</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M20" s="7">
-        <v>303</v>
-      </c>
-      <c r="N20" s="7">
-        <v>204025</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>179</v>
-      </c>
-      <c r="D21" s="7">
-        <v>123276</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>192</v>
-      </c>
-      <c r="I21" s="7">
-        <v>127461</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>371</v>
-      </c>
-      <c r="N21" s="7">
-        <v>250737</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>120</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3532,8 +3100,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF8F49F-93FC-4C6F-9D6E-D0E255009329}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC7D34F-BC63-4DB1-93E5-706B70452F8B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3549,7 +3117,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3650,100 +3218,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>6561</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>3445</v>
+        <v>6160</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N4" s="7">
-        <v>3445</v>
+        <v>12721</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>4167</v>
+        <v>19280</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="I5" s="7">
-        <v>2767</v>
+        <v>21500</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="N5" s="7">
-        <v>6933</v>
+        <v>40780</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>117</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,153 +3320,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7">
-        <v>4167</v>
+        <v>25841</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I6" s="7">
-        <v>6212</v>
+        <v>27660</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="N6" s="7">
-        <v>10378</v>
+        <v>53501</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>5619</v>
+        <v>10427</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>3106</v>
+        <v>9596</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="N7" s="7">
-        <v>8726</v>
+        <v>20023</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D8" s="7">
-        <v>15985</v>
+        <v>33815</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="H8" s="7">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="I8" s="7">
-        <v>16217</v>
+        <v>54213</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="N8" s="7">
-        <v>32201</v>
+        <v>88028</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,153 +3475,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D9" s="7">
-        <v>21604</v>
+        <v>44242</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="I9" s="7">
-        <v>19323</v>
+        <v>63809</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="N9" s="7">
-        <v>40927</v>
+        <v>108051</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>9012</v>
+        <v>10778</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>251</v>
+        <v>164</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>7020</v>
+        <v>9471</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>254</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N10" s="7">
-        <v>16031</v>
+        <v>20248</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D11" s="7">
-        <v>51833</v>
+        <v>66293</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>259</v>
+        <v>172</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="H11" s="7">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="I11" s="7">
-        <v>33153</v>
+        <v>47452</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>261</v>
+        <v>27</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>262</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="M11" s="7">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="N11" s="7">
-        <v>84987</v>
+        <v>113746</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,153 +3630,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D12" s="7">
-        <v>60845</v>
+        <v>77071</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="I12" s="7">
-        <v>40173</v>
+        <v>56923</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>101018</v>
+        <v>133994</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>9152</v>
+        <v>4977</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="H13" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>11012</v>
+        <v>8289</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="M13" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N13" s="7">
-        <v>20164</v>
+        <v>13266</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D14" s="7">
-        <v>44342</v>
+        <v>25584</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="H14" s="7">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="I14" s="7">
-        <v>46883</v>
+        <v>25520</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="M14" s="7">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="N14" s="7">
-        <v>91224</v>
+        <v>51104</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,153 +3785,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D15" s="7">
-        <v>53494</v>
+        <v>30561</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="I15" s="7">
-        <v>57895</v>
+        <v>33809</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="N15" s="7">
-        <v>111388</v>
+        <v>64370</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D16" s="7">
-        <v>8059</v>
+        <v>32743</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="H16" s="7">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="I16" s="7">
-        <v>5129</v>
+        <v>33516</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="M16" s="7">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="N16" s="7">
-        <v>13188</v>
+        <v>66259</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="D17" s="7">
-        <v>24368</v>
+        <v>144972</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="H17" s="7">
-        <v>39</v>
+        <v>208</v>
       </c>
       <c r="I17" s="7">
-        <v>25680</v>
+        <v>148685</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="M17" s="7">
-        <v>73</v>
+        <v>391</v>
       </c>
       <c r="N17" s="7">
-        <v>50049</v>
+        <v>293657</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,217 +3940,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="D18" s="7">
-        <v>32427</v>
+        <v>177715</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>47</v>
+        <v>250</v>
       </c>
       <c r="I18" s="7">
-        <v>30809</v>
+        <v>182201</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>93</v>
+        <v>476</v>
       </c>
       <c r="N18" s="7">
-        <v>63237</v>
+        <v>359916</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>42</v>
-      </c>
-      <c r="D19" s="7">
-        <v>31842</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H19" s="7">
-        <v>43</v>
-      </c>
-      <c r="I19" s="7">
-        <v>29713</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="M19" s="7">
-        <v>85</v>
-      </c>
-      <c r="N19" s="7">
-        <v>61555</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>208</v>
-      </c>
-      <c r="D20" s="7">
-        <v>140695</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="H20" s="7">
-        <v>183</v>
-      </c>
-      <c r="I20" s="7">
-        <v>124699</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M20" s="7">
-        <v>391</v>
-      </c>
-      <c r="N20" s="7">
-        <v>265393</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>250</v>
-      </c>
-      <c r="D21" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>226</v>
-      </c>
-      <c r="I21" s="7">
-        <v>154412</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>476</v>
-      </c>
-      <c r="N21" s="7">
-        <v>326948</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>120</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
